--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFEqualsNumber.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFEqualsNumber.xlsx
@@ -380,22 +380,22 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="0" t="n">
+      <x:c r="A1" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFEqualsNumber.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFEqualsNumber.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFEqualsNumber.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFEqualsNumber.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
